--- a/Frekuensi/Frekuensi Penyusun Ndeng_11.xlsx
+++ b/Frekuensi/Frekuensi Penyusun Ndeng_11.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A172"/>
+  <dimension ref="A1:A190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -379,27 +379,27 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0</v>
+        <v>1076.66015625</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>0</v>
+        <v>1076.66015625</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>0</v>
+        <v>1076.66015625</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>0</v>
+        <v>1076.66015625</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>2368.65234375</v>
+        <v>1076.66015625</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -479,22 +479,22 @@
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>1076.66015625</v>
+        <v>1098.193359375</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>1076.66015625</v>
+        <v>1098.193359375</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>1098.193359375</v>
+        <v>1076.66015625</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>1098.193359375</v>
+        <v>1076.66015625</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -514,7 +514,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>1076.66015625</v>
+        <v>1098.193359375</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -559,7 +559,7 @@
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>1098.193359375</v>
+        <v>1076.66015625</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -584,7 +584,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>1076.66015625</v>
+        <v>1098.193359375</v>
       </c>
     </row>
     <row r="44" spans="1:1">
@@ -599,17 +599,17 @@
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>1098.193359375</v>
+        <v>1076.66015625</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>1098.193359375</v>
+        <v>1076.66015625</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>1098.193359375</v>
+        <v>1076.66015625</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -619,17 +619,17 @@
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>1076.66015625</v>
+        <v>1098.193359375</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>1076.66015625</v>
+        <v>1098.193359375</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>1076.66015625</v>
+        <v>1098.193359375</v>
       </c>
     </row>
     <row r="53" spans="1:1">
@@ -639,22 +639,22 @@
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>1098.193359375</v>
+        <v>1076.66015625</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>1098.193359375</v>
+        <v>1076.66015625</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>1098.193359375</v>
+        <v>1076.66015625</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>1098.193359375</v>
+        <v>1076.66015625</v>
       </c>
     </row>
     <row r="58" spans="1:1">
@@ -664,17 +664,17 @@
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>1076.66015625</v>
+        <v>1098.193359375</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>1076.66015625</v>
+        <v>1098.193359375</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>1076.66015625</v>
+        <v>1098.193359375</v>
       </c>
     </row>
     <row r="62" spans="1:1">
@@ -684,22 +684,22 @@
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>1098.193359375</v>
+        <v>1076.66015625</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>1098.193359375</v>
+        <v>1076.66015625</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>1098.193359375</v>
+        <v>1076.66015625</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>1098.193359375</v>
+        <v>1076.66015625</v>
       </c>
     </row>
     <row r="67" spans="1:1">
@@ -709,12 +709,12 @@
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>1076.66015625</v>
+        <v>1098.193359375</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>1076.66015625</v>
+        <v>1098.193359375</v>
       </c>
     </row>
     <row r="70" spans="1:1">
@@ -739,12 +739,12 @@
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>1098.193359375</v>
+        <v>1076.66015625</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>1098.193359375</v>
+        <v>1076.66015625</v>
       </c>
     </row>
     <row r="76" spans="1:1">
@@ -784,7 +784,7 @@
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>1076.66015625</v>
+        <v>1098.193359375</v>
       </c>
     </row>
     <row r="84" spans="1:1">
@@ -799,7 +799,7 @@
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>1098.193359375</v>
+        <v>1076.66015625</v>
       </c>
     </row>
     <row r="87" spans="1:1">
@@ -824,12 +824,12 @@
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>1076.66015625</v>
+        <v>1098.193359375</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>1076.66015625</v>
+        <v>1098.193359375</v>
       </c>
     </row>
     <row r="93" spans="1:1">
@@ -844,7 +844,7 @@
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>1098.193359375</v>
+        <v>1076.66015625</v>
       </c>
     </row>
     <row r="96" spans="1:1">
@@ -864,17 +864,17 @@
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>1076.66015625</v>
+        <v>1098.193359375</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>1076.66015625</v>
+        <v>1098.193359375</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>1076.66015625</v>
+        <v>1098.193359375</v>
       </c>
     </row>
     <row r="102" spans="1:1">
@@ -884,22 +884,22 @@
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>1098.193359375</v>
+        <v>1076.66015625</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>1098.193359375</v>
+        <v>1076.66015625</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>1098.193359375</v>
+        <v>1076.66015625</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>1098.193359375</v>
+        <v>1076.66015625</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -909,12 +909,12 @@
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>1076.66015625</v>
+        <v>1098.193359375</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>1076.66015625</v>
+        <v>1098.193359375</v>
       </c>
     </row>
     <row r="110" spans="1:1">
@@ -929,17 +929,17 @@
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>1098.193359375</v>
+        <v>1076.66015625</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>1098.193359375</v>
+        <v>1076.66015625</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>1098.193359375</v>
+        <v>1076.66015625</v>
       </c>
     </row>
     <row r="115" spans="1:1">
@@ -949,17 +949,17 @@
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>1076.66015625</v>
+        <v>1098.193359375</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>1076.66015625</v>
+        <v>1098.193359375</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>1076.66015625</v>
+        <v>1098.193359375</v>
       </c>
     </row>
     <row r="119" spans="1:1">
@@ -979,7 +979,7 @@
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>1098.193359375</v>
+        <v>1076.66015625</v>
       </c>
     </row>
     <row r="123" spans="1:1">
@@ -999,7 +999,7 @@
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>1076.66015625</v>
+        <v>1098.193359375</v>
       </c>
     </row>
     <row r="127" spans="1:1">
@@ -1024,7 +1024,7 @@
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>1076.66015625</v>
+        <v>1098.193359375</v>
       </c>
     </row>
     <row r="132" spans="1:1">
@@ -1039,12 +1039,12 @@
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>1098.193359375</v>
+        <v>1076.66015625</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>1098.193359375</v>
+        <v>1076.66015625</v>
       </c>
     </row>
     <row r="136" spans="1:1">
@@ -1064,7 +1064,7 @@
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>1076.66015625</v>
+        <v>1098.193359375</v>
       </c>
     </row>
     <row r="140" spans="1:1">
@@ -1084,12 +1084,12 @@
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>1098.193359375</v>
+        <v>1076.66015625</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>1098.193359375</v>
+        <v>1076.66015625</v>
       </c>
     </row>
     <row r="145" spans="1:1">
@@ -1099,37 +1099,37 @@
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>1076.66015625</v>
+        <v>1098.193359375</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>1076.66015625</v>
+        <v>1098.193359375</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>1076.66015625</v>
+        <v>1098.193359375</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>1076.66015625</v>
+        <v>1098.193359375</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>1098.193359375</v>
+        <v>1076.66015625</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>1098.193359375</v>
+        <v>1076.66015625</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>1098.193359375</v>
+        <v>1076.66015625</v>
       </c>
     </row>
     <row r="153" spans="1:1">
@@ -1139,32 +1139,32 @@
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>1076.66015625</v>
+        <v>1098.193359375</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>1076.66015625</v>
+        <v>1098.193359375</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>1076.66015625</v>
+        <v>1098.193359375</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>1076.66015625</v>
+        <v>1098.193359375</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>1076.66015625</v>
+        <v>1098.193359375</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>1076.66015625</v>
+        <v>1098.193359375</v>
       </c>
     </row>
     <row r="160" spans="1:1">
@@ -1189,12 +1189,12 @@
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>1076.66015625</v>
+        <v>1098.193359375</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>1076.66015625</v>
+        <v>1098.193359375</v>
       </c>
     </row>
     <row r="166" spans="1:1">
@@ -1204,7 +1204,7 @@
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>1076.66015625</v>
+        <v>1098.193359375</v>
       </c>
     </row>
     <row r="168" spans="1:1">
@@ -1229,7 +1229,97 @@
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>0</v>
+        <v>1076.66015625</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173">
+        <v>1076.66015625</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174">
+        <v>1098.193359375</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175">
+        <v>1098.193359375</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176">
+        <v>1098.193359375</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177">
+        <v>1076.66015625</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178">
+        <v>1076.66015625</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179">
+        <v>1076.66015625</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180">
+        <v>1076.66015625</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181">
+        <v>1076.66015625</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182">
+        <v>1076.66015625</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183">
+        <v>1076.66015625</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184">
+        <v>1076.66015625</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185">
+        <v>1076.66015625</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186">
+        <v>1076.66015625</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187">
+        <v>1076.66015625</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188">
+        <v>1076.66015625</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189">
+        <v>1076.66015625</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190">
+        <v>1076.66015625</v>
       </c>
     </row>
   </sheetData>
